--- a/mockportfolio.xlsx
+++ b/mockportfolio.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D943B-64B9-4BFA-BEF0-6F04077E05F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8CD15-C8C8-43E3-B4FE-54D843DDC996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="1050" windowWidth="22335" windowHeight="13875" xr2:uid="{F4247E82-D853-46A5-ACB9-CAB2FE7313A2}"/>
+    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" xr2:uid="{F4247E82-D853-46A5-ACB9-CAB2FE7313A2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Main" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>STOCK RATINGS</t>
   </si>
@@ -113,15 +113,6 @@
     <t>IRR</t>
   </si>
   <si>
-    <t>4months</t>
-  </si>
-  <si>
-    <t>12months</t>
-  </si>
-  <si>
-    <t>(not including dividends from high yield stocks like OXY &amp; STZ)</t>
-  </si>
-  <si>
     <t>MV (now)</t>
   </si>
   <si>
@@ -138,6 +129,30 @@
   </si>
   <si>
     <t>PAS. MOS</t>
+  </si>
+  <si>
+    <t>Retrospective Analysis</t>
+  </si>
+  <si>
+    <t>(not including dividends from high yield stocks like OXY)</t>
+  </si>
+  <si>
+    <t>SPY</t>
+  </si>
+  <si>
+    <t>SPY (benchmark)</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Portfolio</t>
+  </si>
+  <si>
+    <t>mock portfolio performed ~30% better than benchmark (SPY)</t>
+  </si>
+  <si>
+    <t>key winners were PYPL and SMCI both were deep value investments trading at low ratios</t>
   </si>
 </sst>
 </file>
@@ -147,13 +162,25 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -183,6 +210,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -204,18 +239,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,13 +589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D71D458-D47A-48F5-B8A0-813BF72CD8E8}">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -593,7 +632,7 @@
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>7</v>
@@ -655,7 +694,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" ref="G3:G9" si="2">C3/B3-1</f>
+        <f t="shared" ref="G3:G10" si="2">C3/B3-1</f>
         <v>0.36612021857923494</v>
       </c>
       <c r="I3" s="1">
@@ -862,18 +901,32 @@
       <c r="A10" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="B10" s="1">
+        <v>196</v>
+      </c>
+      <c r="C10" s="1">
+        <v>170</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="6" t="e">
+      <c r="E10" s="5">
+        <v>45784</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="J10" s="6" t="e">
+        <v>-0.19431279620853081</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>-0.13265306122448983</v>
+      </c>
+      <c r="I10" s="1">
+        <v>211</v>
+      </c>
+      <c r="J10" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>7.6530612244897878E-2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -886,25 +939,25 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
@@ -1017,7 +1070,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1098,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
@@ -1073,7 +1126,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1086,12 +1139,15 @@
         <f>SUM(D13:D18)</f>
         <v>3996</v>
       </c>
+      <c r="G19" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="I19" s="1">
         <f>SUM(I13:I18)</f>
         <v>5084</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B20" s="6"/>
       <c r="G20" s="1" t="s">
         <v>23</v>
@@ -1100,14 +1156,9 @@
         <f>I19/D19-1</f>
         <v>0.27227227227227235</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J20" s="5">
-        <v>45868</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="G21" s="2" t="s">
         <v>24</v>
       </c>
@@ -1115,13 +1166,64 @@
         <f>(H20+1)^3-1</f>
         <v>1.0593975274491627</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="1" t="s">
-        <v>27</v>
+      <c r="I21" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="6">
+        <f>K25/K24-1</f>
+        <v>0.20953288846520501</v>
+      </c>
+      <c r="J24" s="5">
+        <v>45757</v>
+      </c>
+      <c r="K24" s="14">
+        <v>524.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H25" s="9">
+        <f>(H24+1)^3-1</f>
+        <v>0.76951009794506442</v>
+      </c>
+      <c r="J25" s="5">
+        <v>45868</v>
+      </c>
+      <c r="K25" s="14">
+        <v>634.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G27" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G28" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G29" s="13" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/mockportfolio.xlsx
+++ b/mockportfolio.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8CD15-C8C8-43E3-B4FE-54D843DDC996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8EE406-B95A-4905-94D3-0A64FDEE36CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1605" yWindow="1425" windowWidth="22335" windowHeight="13875" xr2:uid="{F4247E82-D853-46A5-ACB9-CAB2FE7313A2}"/>
+    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" xr2:uid="{F4247E82-D853-46A5-ACB9-CAB2FE7313A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -595,7 +595,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1211,7 +1211,11 @@
         <v>634.4</v>
       </c>
     </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F26" s="10"/>
+    </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F27" s="10"/>
       <c r="G27" s="12" t="s">
         <v>31</v>
       </c>

--- a/mockportfolio.xlsx
+++ b/mockportfolio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\OneDrive\Desktop\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8EE406-B95A-4905-94D3-0A64FDEE36CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E60757A5-C8D8-4D3E-A95E-E94C83A2E6C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="210" windowWidth="21750" windowHeight="15015" xr2:uid="{F4247E82-D853-46A5-ACB9-CAB2FE7313A2}"/>
+    <workbookView xWindow="1950" yWindow="45" windowWidth="22140" windowHeight="14805" xr2:uid="{F4247E82-D853-46A5-ACB9-CAB2FE7313A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -592,10 +592,10 @@
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomRight" activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
